--- a/data/pca/factorExposure/factorExposure_2014-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004782086113806628</v>
+        <v>0.02058490587956001</v>
       </c>
       <c r="C2">
-        <v>-0.1505947039775556</v>
+        <v>0.0716518224444129</v>
       </c>
       <c r="D2">
-        <v>0.04025690215362447</v>
+        <v>-0.03347191582434845</v>
       </c>
       <c r="E2">
-        <v>-0.2388426864737002</v>
+        <v>0.02161400481913311</v>
       </c>
       <c r="F2">
-        <v>0.06654688915585809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03084680376156372</v>
+      </c>
+      <c r="G2">
+        <v>0.1482786637688772</v>
+      </c>
+      <c r="H2">
+        <v>-0.02287096368232592</v>
+      </c>
+      <c r="I2">
+        <v>0.04023508379663556</v>
+      </c>
+      <c r="J2">
+        <v>0.1324389008683686</v>
+      </c>
+      <c r="K2">
+        <v>0.07598597126919875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01179183824924247</v>
+        <v>0.02468365184097762</v>
       </c>
       <c r="C4">
-        <v>-0.1760039979615016</v>
+        <v>0.1399397333512291</v>
       </c>
       <c r="D4">
-        <v>0.05465272161070241</v>
+        <v>-0.06501816287564614</v>
       </c>
       <c r="E4">
-        <v>-0.03413909833183314</v>
+        <v>0.01897104465632973</v>
       </c>
       <c r="F4">
-        <v>-0.07446771480012171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06173559225398886</v>
+      </c>
+      <c r="G4">
+        <v>0.0224535273642104</v>
+      </c>
+      <c r="H4">
+        <v>0.01003773891735576</v>
+      </c>
+      <c r="I4">
+        <v>-0.02079938547646309</v>
+      </c>
+      <c r="J4">
+        <v>0.09931005550086736</v>
+      </c>
+      <c r="K4">
+        <v>-0.003024684335493097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03451442400725709</v>
+        <v>0.04358067247962247</v>
       </c>
       <c r="C6">
-        <v>-0.07530553500908982</v>
+        <v>0.08648711420443192</v>
       </c>
       <c r="D6">
-        <v>0.08197347004509579</v>
+        <v>-0.02856260013021661</v>
       </c>
       <c r="E6">
-        <v>-0.02827649528334439</v>
+        <v>-0.007485048232251175</v>
       </c>
       <c r="F6">
-        <v>0.02422280023822079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.009937277433468889</v>
+      </c>
+      <c r="G6">
+        <v>0.04542300530850189</v>
+      </c>
+      <c r="H6">
+        <v>0.02603804196962044</v>
+      </c>
+      <c r="I6">
+        <v>-0.07845254594778177</v>
+      </c>
+      <c r="J6">
+        <v>0.0003985271742096255</v>
+      </c>
+      <c r="K6">
+        <v>0.05857906052207069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.01782504011175691</v>
+        <v>0.02165358408362881</v>
       </c>
       <c r="C7">
-        <v>-0.0802748935971711</v>
+        <v>0.07344920821136228</v>
       </c>
       <c r="D7">
-        <v>0.05051285253477162</v>
+        <v>-0.03240357547950452</v>
       </c>
       <c r="E7">
-        <v>0.001780081647995722</v>
+        <v>-0.005961835614844748</v>
       </c>
       <c r="F7">
-        <v>0.02177515251365447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.005825155719895529</v>
+      </c>
+      <c r="G7">
+        <v>-0.01641359284847486</v>
+      </c>
+      <c r="H7">
+        <v>0.01837961924294488</v>
+      </c>
+      <c r="I7">
+        <v>-0.01644158043239038</v>
+      </c>
+      <c r="J7">
+        <v>0.1069656370998945</v>
+      </c>
+      <c r="K7">
+        <v>0.02098080461680146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01343991362114611</v>
+        <v>0.004631745047153332</v>
       </c>
       <c r="C8">
-        <v>-0.07174268430795343</v>
+        <v>0.06057484503778254</v>
       </c>
       <c r="D8">
-        <v>0.02198439160268481</v>
+        <v>-0.0460353581453821</v>
       </c>
       <c r="E8">
-        <v>-0.08564986388503425</v>
+        <v>-0.02394681684484542</v>
       </c>
       <c r="F8">
-        <v>-0.01191588581947932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0401072059306485</v>
+      </c>
+      <c r="G8">
+        <v>0.05873784425266307</v>
+      </c>
+      <c r="H8">
+        <v>0.04644131671272229</v>
+      </c>
+      <c r="I8">
+        <v>-0.02365765245947637</v>
+      </c>
+      <c r="J8">
+        <v>0.03466695307896186</v>
+      </c>
+      <c r="K8">
+        <v>-0.01998307088718613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.004514115614747057</v>
+        <v>0.01524445556218138</v>
       </c>
       <c r="C9">
-        <v>-0.1222097204642469</v>
+        <v>0.09784466116071644</v>
       </c>
       <c r="D9">
-        <v>0.06059896213430408</v>
+        <v>-0.04060338762680357</v>
       </c>
       <c r="E9">
-        <v>-0.001424806517455965</v>
+        <v>0.02665137090545137</v>
       </c>
       <c r="F9">
-        <v>-0.01955712055929423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02159455570848933</v>
+      </c>
+      <c r="G9">
+        <v>0.01179979692752611</v>
+      </c>
+      <c r="H9">
+        <v>0.02196848641456286</v>
+      </c>
+      <c r="I9">
+        <v>-0.01115055492160685</v>
+      </c>
+      <c r="J9">
+        <v>0.1082628904719002</v>
+      </c>
+      <c r="K9">
+        <v>0.01778343720792571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2610387950423294</v>
+        <v>0.2410823446580612</v>
       </c>
       <c r="C10">
-        <v>0.08008487680154582</v>
+        <v>-0.1049460794657805</v>
       </c>
       <c r="D10">
-        <v>-0.04160419139370626</v>
+        <v>0.007501908919860281</v>
       </c>
       <c r="E10">
-        <v>0.01948024336628285</v>
+        <v>-0.03961724336924342</v>
       </c>
       <c r="F10">
-        <v>-0.05400938131249266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01146246244075783</v>
+      </c>
+      <c r="G10">
+        <v>0.02645911750613924</v>
+      </c>
+      <c r="H10">
+        <v>0.0296851794602078</v>
+      </c>
+      <c r="I10">
+        <v>-0.05590095813382582</v>
+      </c>
+      <c r="J10">
+        <v>0.01591012153737556</v>
+      </c>
+      <c r="K10">
+        <v>-0.1497505950812056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.007938187498203117</v>
+        <v>0.01975241591759649</v>
       </c>
       <c r="C11">
-        <v>-0.0680458877836926</v>
+        <v>0.07994820297021285</v>
       </c>
       <c r="D11">
-        <v>0.03942317844479255</v>
+        <v>-0.04173745995172657</v>
       </c>
       <c r="E11">
-        <v>0.03628018394954244</v>
+        <v>0.01819674893750895</v>
       </c>
       <c r="F11">
-        <v>-0.01042435504342847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.001943329873342602</v>
+      </c>
+      <c r="G11">
+        <v>-0.01233678141817105</v>
+      </c>
+      <c r="H11">
+        <v>0.01676765521764084</v>
+      </c>
+      <c r="I11">
+        <v>0.001447380296343062</v>
+      </c>
+      <c r="J11">
+        <v>0.02750503043172163</v>
+      </c>
+      <c r="K11">
+        <v>0.02324882424886335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.006579903938423622</v>
+        <v>0.0187149482469122</v>
       </c>
       <c r="C12">
-        <v>-0.04589550201816153</v>
+        <v>0.05268209948771849</v>
       </c>
       <c r="D12">
-        <v>0.0420574574796851</v>
+        <v>-0.0258597958419378</v>
       </c>
       <c r="E12">
-        <v>0.03090261227424563</v>
+        <v>0.01103461152068916</v>
       </c>
       <c r="F12">
-        <v>0.0211186766825531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0181985988346909</v>
+      </c>
+      <c r="G12">
+        <v>0.003361363456586756</v>
+      </c>
+      <c r="H12">
+        <v>0.01358746415583482</v>
+      </c>
+      <c r="I12">
+        <v>-0.02115886392610523</v>
+      </c>
+      <c r="J12">
+        <v>0.02506378736459533</v>
+      </c>
+      <c r="K12">
+        <v>0.008676136138971544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.004291078815825724</v>
+        <v>0.009110236942871247</v>
       </c>
       <c r="C13">
-        <v>-0.116122540965782</v>
+        <v>0.1094197396050207</v>
       </c>
       <c r="D13">
-        <v>0.06027457220321138</v>
+        <v>-0.04546055947914304</v>
       </c>
       <c r="E13">
-        <v>-0.07666428435818308</v>
+        <v>0.0003316958536441925</v>
       </c>
       <c r="F13">
-        <v>0.100267973064438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01834198319020663</v>
+      </c>
+      <c r="G13">
+        <v>0.1547811149581167</v>
+      </c>
+      <c r="H13">
+        <v>-0.08292120330033202</v>
+      </c>
+      <c r="I13">
+        <v>-0.05624568775453859</v>
+      </c>
+      <c r="J13">
+        <v>0.2275639299827207</v>
+      </c>
+      <c r="K13">
+        <v>-0.1886482473880303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0080452586043386</v>
+        <v>0.02333850074176129</v>
       </c>
       <c r="C14">
-        <v>-0.08378455621607603</v>
+        <v>0.07524957685284747</v>
       </c>
       <c r="D14">
-        <v>0.05016099769561155</v>
+        <v>-0.04456866758618579</v>
       </c>
       <c r="E14">
-        <v>0.001710620078686447</v>
+        <v>-0.01308799566046545</v>
       </c>
       <c r="F14">
-        <v>0.04469255540918712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03281650421077655</v>
+      </c>
+      <c r="G14">
+        <v>0.02354850283864088</v>
+      </c>
+      <c r="H14">
+        <v>0.04594182758484267</v>
+      </c>
+      <c r="I14">
+        <v>-0.09878655959496065</v>
+      </c>
+      <c r="J14">
+        <v>0.181414115506204</v>
+      </c>
+      <c r="K14">
+        <v>0.00749246460184143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.004314355602651768</v>
+        <v>0.004870432810722665</v>
       </c>
       <c r="C15">
-        <v>-0.07846324389139041</v>
+        <v>0.07122805169115562</v>
       </c>
       <c r="D15">
-        <v>0.03035690016490349</v>
+        <v>-0.03299879369293014</v>
       </c>
       <c r="E15">
-        <v>-0.01553797227710846</v>
+        <v>0.01065213481372279</v>
       </c>
       <c r="F15">
-        <v>-0.006688969160882919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03441860665198225</v>
+      </c>
+      <c r="G15">
+        <v>0.005676997736950532</v>
+      </c>
+      <c r="H15">
+        <v>0.03125553951810799</v>
+      </c>
+      <c r="I15">
+        <v>-0.0382658797928217</v>
+      </c>
+      <c r="J15">
+        <v>0.07235288134254871</v>
+      </c>
+      <c r="K15">
+        <v>0.01856651492074935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008243098184379382</v>
+        <v>0.01811624377487154</v>
       </c>
       <c r="C16">
-        <v>-0.05431304362187703</v>
+        <v>0.060368794337681</v>
       </c>
       <c r="D16">
-        <v>0.03054136152397999</v>
+        <v>-0.02619202947692325</v>
       </c>
       <c r="E16">
-        <v>0.02450367337932736</v>
+        <v>0.01200947663604196</v>
       </c>
       <c r="F16">
-        <v>0.00213236281995371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.00176882477026197</v>
+      </c>
+      <c r="G16">
+        <v>-0.007258505712212214</v>
+      </c>
+      <c r="H16">
+        <v>0.008155088177895474</v>
+      </c>
+      <c r="I16">
+        <v>-0.004941783655482537</v>
+      </c>
+      <c r="J16">
+        <v>0.02177978505910365</v>
+      </c>
+      <c r="K16">
+        <v>0.01835626403506815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01084592488662834</v>
+        <v>0.01870558101080064</v>
       </c>
       <c r="C20">
-        <v>-0.09511256343856658</v>
+        <v>0.08581845770862565</v>
       </c>
       <c r="D20">
-        <v>0.05002723345758123</v>
+        <v>-0.02744467831060346</v>
       </c>
       <c r="E20">
-        <v>0.05481197390591021</v>
+        <v>0.003432621017524339</v>
       </c>
       <c r="F20">
-        <v>0.008370039398592145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01222426061767293</v>
+      </c>
+      <c r="G20">
+        <v>-0.02204030336979844</v>
+      </c>
+      <c r="H20">
+        <v>0.04092828320537055</v>
+      </c>
+      <c r="I20">
+        <v>-0.03592574103318224</v>
+      </c>
+      <c r="J20">
+        <v>0.06007263061525134</v>
+      </c>
+      <c r="K20">
+        <v>0.01197633691719337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.008775327123502387</v>
+        <v>0.01446575595080596</v>
       </c>
       <c r="C21">
-        <v>-0.07688120969291225</v>
+        <v>0.06715939602034043</v>
       </c>
       <c r="D21">
-        <v>0.001578756444002601</v>
+        <v>-0.01622201973580806</v>
       </c>
       <c r="E21">
-        <v>-0.01878599510788885</v>
+        <v>-0.01479291611813727</v>
       </c>
       <c r="F21">
-        <v>0.08709895004908409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.05654396466751382</v>
+      </c>
+      <c r="G21">
+        <v>0.07202899520413214</v>
+      </c>
+      <c r="H21">
+        <v>0.0455665555249123</v>
+      </c>
+      <c r="I21">
+        <v>-0.02892603566839881</v>
+      </c>
+      <c r="J21">
+        <v>0.1291377403316883</v>
+      </c>
+      <c r="K21">
+        <v>-0.01899551360581915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.002999109130032849</v>
+        <v>0.01021637372857891</v>
       </c>
       <c r="C22">
-        <v>-0.2627269084147768</v>
+        <v>0.1663803588236603</v>
       </c>
       <c r="D22">
-        <v>-0.1014833425471991</v>
+        <v>-0.01625497762256708</v>
       </c>
       <c r="E22">
-        <v>-0.3518725800788513</v>
+        <v>0.02096710197321312</v>
       </c>
       <c r="F22">
-        <v>-0.2120517671279133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3909494936162994</v>
+      </c>
+      <c r="G22">
+        <v>0.3398269919058807</v>
+      </c>
+      <c r="H22">
+        <v>-0.2517661183145479</v>
+      </c>
+      <c r="I22">
+        <v>0.07450477338866196</v>
+      </c>
+      <c r="J22">
+        <v>-0.2447566251816032</v>
+      </c>
+      <c r="K22">
+        <v>0.02039946141041159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.001965656298123819</v>
+        <v>0.01527671616163578</v>
       </c>
       <c r="C23">
-        <v>-0.2660954530392153</v>
+        <v>0.1688461503371297</v>
       </c>
       <c r="D23">
-        <v>-0.1062035282159008</v>
+        <v>-0.01584174881541632</v>
       </c>
       <c r="E23">
-        <v>-0.3454308410372999</v>
+        <v>0.02513372535098912</v>
       </c>
       <c r="F23">
-        <v>-0.2103355348813351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.379636209707826</v>
+      </c>
+      <c r="G23">
+        <v>0.3316666229920941</v>
+      </c>
+      <c r="H23">
+        <v>-0.2386653829145467</v>
+      </c>
+      <c r="I23">
+        <v>0.07200264894305858</v>
+      </c>
+      <c r="J23">
+        <v>-0.2258335222417093</v>
+      </c>
+      <c r="K23">
+        <v>0.02438445617606214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005550490109443018</v>
+        <v>0.01865178731856131</v>
       </c>
       <c r="C24">
-        <v>-0.05983499660429866</v>
+        <v>0.06379257536523929</v>
       </c>
       <c r="D24">
-        <v>0.05215498937467018</v>
+        <v>-0.04066117957512814</v>
       </c>
       <c r="E24">
-        <v>0.02729489909141278</v>
+        <v>0.01931531568925938</v>
       </c>
       <c r="F24">
-        <v>-0.0002669820075388422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001477351057122972</v>
+      </c>
+      <c r="G24">
+        <v>-0.008436416537193634</v>
+      </c>
+      <c r="H24">
+        <v>0.01356787694352893</v>
+      </c>
+      <c r="I24">
+        <v>-0.01446361530159201</v>
+      </c>
+      <c r="J24">
+        <v>0.03964876404662163</v>
+      </c>
+      <c r="K24">
+        <v>0.0199748925668895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.006495840640582261</v>
+        <v>0.02398556068158437</v>
       </c>
       <c r="C25">
-        <v>-0.06441699322235608</v>
+        <v>0.06811885929575821</v>
       </c>
       <c r="D25">
-        <v>0.02805183141606609</v>
+        <v>-0.03382971205166679</v>
       </c>
       <c r="E25">
-        <v>0.03228812778709564</v>
+        <v>0.01993639142880797</v>
       </c>
       <c r="F25">
-        <v>0.00400939567334579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0008426768349229296</v>
+      </c>
+      <c r="G25">
+        <v>-0.008355034224975742</v>
+      </c>
+      <c r="H25">
+        <v>0.01348644601256673</v>
+      </c>
+      <c r="I25">
+        <v>-0.005236897090834356</v>
+      </c>
+      <c r="J25">
+        <v>0.0367180127811973</v>
+      </c>
+      <c r="K25">
+        <v>0.009796747610710019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.003566769563826419</v>
+        <v>0.02256462566361715</v>
       </c>
       <c r="C26">
-        <v>-0.04501305632651698</v>
+        <v>0.05018319445883</v>
       </c>
       <c r="D26">
-        <v>0.08055127352815357</v>
+        <v>-0.05844779088041295</v>
       </c>
       <c r="E26">
-        <v>0.01793590559349335</v>
+        <v>0.01540153985939241</v>
       </c>
       <c r="F26">
-        <v>0.03728296163096752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0056435137198513</v>
+      </c>
+      <c r="G26">
+        <v>-0.01028344118927914</v>
+      </c>
+      <c r="H26">
+        <v>0.03527468826766717</v>
+      </c>
+      <c r="I26">
+        <v>0.01053978696490615</v>
+      </c>
+      <c r="J26">
+        <v>0.1180710445542827</v>
+      </c>
+      <c r="K26">
+        <v>0.06651333483878472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3406592349664543</v>
+        <v>0.3044122950310649</v>
       </c>
       <c r="C28">
-        <v>0.09450656776775671</v>
+        <v>-0.126143986714312</v>
       </c>
       <c r="D28">
-        <v>-0.03182834953392252</v>
+        <v>0.0293388780034557</v>
       </c>
       <c r="E28">
-        <v>-0.004694238386897305</v>
+        <v>-0.03479366932250224</v>
       </c>
       <c r="F28">
-        <v>-0.0376578129434122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01907070225439731</v>
+      </c>
+      <c r="G28">
+        <v>0.04724777286453627</v>
+      </c>
+      <c r="H28">
+        <v>0.03652278234562235</v>
+      </c>
+      <c r="I28">
+        <v>0.08786876346336842</v>
+      </c>
+      <c r="J28">
+        <v>0.03015043496020333</v>
+      </c>
+      <c r="K28">
+        <v>-0.2050564014735719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.001929620562242451</v>
+        <v>0.01945012871194089</v>
       </c>
       <c r="C29">
-        <v>-0.07755320632660946</v>
+        <v>0.08103489376083287</v>
       </c>
       <c r="D29">
-        <v>0.05695485663089316</v>
+        <v>-0.0447823568676258</v>
       </c>
       <c r="E29">
-        <v>0.01793194446711557</v>
+        <v>0.01340213349873859</v>
       </c>
       <c r="F29">
-        <v>0.04695763922290513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03959883934962911</v>
+      </c>
+      <c r="G29">
+        <v>0.02117084128103972</v>
+      </c>
+      <c r="H29">
+        <v>0.04998215207527328</v>
+      </c>
+      <c r="I29">
+        <v>-0.1561986202361917</v>
+      </c>
+      <c r="J29">
+        <v>0.2521991808705707</v>
+      </c>
+      <c r="K29">
+        <v>-0.01480394534055437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.0224283094174794</v>
+        <v>0.04153252177277874</v>
       </c>
       <c r="C30">
-        <v>-0.165176817833178</v>
+        <v>0.1455620408459503</v>
       </c>
       <c r="D30">
-        <v>0.07181199368749107</v>
+        <v>-0.0552361209748744</v>
       </c>
       <c r="E30">
-        <v>-0.03816376844094185</v>
+        <v>0.01897664543015096</v>
       </c>
       <c r="F30">
-        <v>-0.01737441832848263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0414549988857434</v>
+      </c>
+      <c r="G30">
+        <v>0.02233873299454327</v>
+      </c>
+      <c r="H30">
+        <v>0.02939309366309972</v>
+      </c>
+      <c r="I30">
+        <v>-0.04623194380143177</v>
+      </c>
+      <c r="J30">
+        <v>0.0374210430379911</v>
+      </c>
+      <c r="K30">
+        <v>0.06994274109010545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003111437848135328</v>
+        <v>0.01699024550835987</v>
       </c>
       <c r="C31">
-        <v>-0.0544416541566954</v>
+        <v>0.07437996024296668</v>
       </c>
       <c r="D31">
-        <v>0.02974512112123071</v>
+        <v>-0.03988232337594266</v>
       </c>
       <c r="E31">
-        <v>0.01612701995400927</v>
+        <v>0.002262457762464239</v>
       </c>
       <c r="F31">
-        <v>-0.002841221566750252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01059702248370414</v>
+      </c>
+      <c r="G31">
+        <v>0.004780699572566654</v>
+      </c>
+      <c r="H31">
+        <v>0.03020449252795869</v>
+      </c>
+      <c r="I31">
+        <v>0.01622092696736913</v>
+      </c>
+      <c r="J31">
+        <v>0.03321051051691983</v>
+      </c>
+      <c r="K31">
+        <v>0.009090405048992996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.005551015493420895</v>
+        <v>0.02170931122076977</v>
       </c>
       <c r="C32">
-        <v>-0.08165585182378814</v>
+        <v>0.04994774983600333</v>
       </c>
       <c r="D32">
-        <v>0.009490998736987256</v>
+        <v>-0.02614043231567676</v>
       </c>
       <c r="E32">
-        <v>-0.1601702720357706</v>
+        <v>-0.004936879473581299</v>
       </c>
       <c r="F32">
-        <v>0.03298281197189819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01164211803616771</v>
+      </c>
+      <c r="G32">
+        <v>0.09891775046804754</v>
+      </c>
+      <c r="H32">
+        <v>-0.04475508649354504</v>
+      </c>
+      <c r="I32">
+        <v>-0.05575548291774392</v>
+      </c>
+      <c r="J32">
+        <v>0.1780411082186828</v>
+      </c>
+      <c r="K32">
+        <v>-0.2500727785527704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.007773149256137004</v>
+        <v>0.01957598570033199</v>
       </c>
       <c r="C33">
-        <v>-0.09283003043600171</v>
+        <v>0.1001934132001154</v>
       </c>
       <c r="D33">
-        <v>0.0650606122486224</v>
+        <v>-0.0498643274982967</v>
       </c>
       <c r="E33">
-        <v>0.02068418105190316</v>
+        <v>0.008964840706226714</v>
       </c>
       <c r="F33">
-        <v>0.00838789788741829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02022270051842986</v>
+      </c>
+      <c r="G33">
+        <v>0.008658977936493208</v>
+      </c>
+      <c r="H33">
+        <v>0.009296476088228138</v>
+      </c>
+      <c r="I33">
+        <v>-0.02755855641482427</v>
+      </c>
+      <c r="J33">
+        <v>0.05890769105412397</v>
+      </c>
+      <c r="K33">
+        <v>-0.01995131434444744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005340318105591639</v>
+        <v>0.01916461913141431</v>
       </c>
       <c r="C34">
-        <v>-0.0464152171252832</v>
+        <v>0.04943251585107174</v>
       </c>
       <c r="D34">
-        <v>0.02506420998437566</v>
+        <v>-0.02113960649871785</v>
       </c>
       <c r="E34">
-        <v>0.01378180942565091</v>
+        <v>0.01822831758212546</v>
       </c>
       <c r="F34">
-        <v>0.0149598683274896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.009172556372338016</v>
+      </c>
+      <c r="G34">
+        <v>-0.006220995467139226</v>
+      </c>
+      <c r="H34">
+        <v>0.01526612726109979</v>
+      </c>
+      <c r="I34">
+        <v>-0.02439117196740337</v>
+      </c>
+      <c r="J34">
+        <v>-0.003873705165181257</v>
+      </c>
+      <c r="K34">
+        <v>0.009576706332812754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.0003076724730985818</v>
+        <v>0.01251148656544429</v>
       </c>
       <c r="C35">
-        <v>-0.03131530064412796</v>
+        <v>0.0488217278752634</v>
       </c>
       <c r="D35">
-        <v>0.01819313133045569</v>
+        <v>-0.02422504472935875</v>
       </c>
       <c r="E35">
-        <v>0.006181221200931572</v>
+        <v>0.002793416865644206</v>
       </c>
       <c r="F35">
-        <v>0.01582640440128035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.004190244320127398</v>
+      </c>
+      <c r="G35">
+        <v>0.00987724248230819</v>
+      </c>
+      <c r="H35">
+        <v>0.05337105569113669</v>
+      </c>
+      <c r="I35">
+        <v>-0.06761456862842317</v>
+      </c>
+      <c r="J35">
+        <v>0.1261567654629766</v>
+      </c>
+      <c r="K35">
+        <v>-0.02237182980300065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.001203228839108303</v>
+        <v>0.01425940997524162</v>
       </c>
       <c r="C36">
-        <v>-0.04617292747791141</v>
+        <v>0.04477040886001076</v>
       </c>
       <c r="D36">
-        <v>0.05026653172431846</v>
+        <v>-0.03809861878361242</v>
       </c>
       <c r="E36">
-        <v>0.01266639126435887</v>
+        <v>-0.0009582824811556189</v>
       </c>
       <c r="F36">
-        <v>0.01296750627600659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01394745782654561</v>
+      </c>
+      <c r="G36">
+        <v>0.009084726567541997</v>
+      </c>
+      <c r="H36">
+        <v>0.0237694954086279</v>
+      </c>
+      <c r="I36">
+        <v>0.001852636360208306</v>
+      </c>
+      <c r="J36">
+        <v>0.09024161331163821</v>
+      </c>
+      <c r="K36">
+        <v>0.02278161500323317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02533764980813574</v>
+        <v>0.01328176396033168</v>
       </c>
       <c r="C38">
-        <v>-0.04537965524155601</v>
+        <v>0.05930594553515207</v>
       </c>
       <c r="D38">
-        <v>0.04629065560955401</v>
+        <v>-0.042061028913536</v>
       </c>
       <c r="E38">
-        <v>0.02709405986229882</v>
+        <v>-0.0318835984763117</v>
       </c>
       <c r="F38">
-        <v>0.009798637456461959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03404758594448813</v>
+      </c>
+      <c r="G38">
+        <v>-0.007052447910005015</v>
+      </c>
+      <c r="H38">
+        <v>0.01438129154378499</v>
+      </c>
+      <c r="I38">
+        <v>-0.03074605289015226</v>
+      </c>
+      <c r="J38">
+        <v>0.07729880373132599</v>
+      </c>
+      <c r="K38">
+        <v>-0.07228949522182984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005038023007568006</v>
+        <v>0.02949189749503314</v>
       </c>
       <c r="C39">
-        <v>-0.1218291055003205</v>
+        <v>0.1306879770419482</v>
       </c>
       <c r="D39">
-        <v>0.06345105676917459</v>
+        <v>-0.05860202270168719</v>
       </c>
       <c r="E39">
-        <v>0.02227853386158166</v>
+        <v>0.002703243421264739</v>
       </c>
       <c r="F39">
-        <v>0.02925268320854548</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01929654945860313</v>
+      </c>
+      <c r="G39">
+        <v>-0.01174208019049169</v>
+      </c>
+      <c r="H39">
+        <v>0.02538719952849918</v>
+      </c>
+      <c r="I39">
+        <v>-0.0570237620296031</v>
+      </c>
+      <c r="J39">
+        <v>0.02660198570120587</v>
+      </c>
+      <c r="K39">
+        <v>0.1002227326942887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01540030522528388</v>
+        <v>0.02369090956473717</v>
       </c>
       <c r="C40">
-        <v>-0.05173322299989984</v>
+        <v>0.0771970506693828</v>
       </c>
       <c r="D40">
-        <v>0.02533484979228065</v>
+        <v>-0.03811888925436463</v>
       </c>
       <c r="E40">
-        <v>-0.02849435029122196</v>
+        <v>0.02137203108486626</v>
       </c>
       <c r="F40">
-        <v>-0.01339794336037959</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0036453871106654</v>
+      </c>
+      <c r="G40">
+        <v>0.02650044138157227</v>
+      </c>
+      <c r="H40">
+        <v>-0.02088259399291547</v>
+      </c>
+      <c r="I40">
+        <v>-0.1060379467418664</v>
+      </c>
+      <c r="J40">
+        <v>0.06902199504208575</v>
+      </c>
+      <c r="K40">
+        <v>-0.0435482007910662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01245970022930182</v>
+        <v>0.02316961389227979</v>
       </c>
       <c r="C41">
-        <v>-0.02313063153130383</v>
+        <v>0.04477524411056628</v>
       </c>
       <c r="D41">
-        <v>0.001363152236745648</v>
+        <v>-0.01378047024246205</v>
       </c>
       <c r="E41">
-        <v>0.01557806154255125</v>
+        <v>0.004090394491074644</v>
       </c>
       <c r="F41">
-        <v>-0.005721159850224662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006545795566255021</v>
+      </c>
+      <c r="G41">
+        <v>-0.0125891576100388</v>
+      </c>
+      <c r="H41">
+        <v>0.004600135317890175</v>
+      </c>
+      <c r="I41">
+        <v>0.002723299359010139</v>
+      </c>
+      <c r="J41">
+        <v>0.02842806034504461</v>
+      </c>
+      <c r="K41">
+        <v>-0.02888378703644186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.007039893770078891</v>
+        <v>0.02162261224410738</v>
       </c>
       <c r="C43">
-        <v>-0.02479568423307528</v>
+        <v>0.04555175390553482</v>
       </c>
       <c r="D43">
-        <v>0.02519570852515286</v>
+        <v>-0.02728191885889463</v>
       </c>
       <c r="E43">
-        <v>0.006507425536835923</v>
+        <v>0.003506738655133204</v>
       </c>
       <c r="F43">
-        <v>-0.007571582138493395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005332229997577019</v>
+      </c>
+      <c r="G43">
+        <v>-0.01274040230549142</v>
+      </c>
+      <c r="H43">
+        <v>0.01118189326869681</v>
+      </c>
+      <c r="I43">
+        <v>-0.004874557509209238</v>
+      </c>
+      <c r="J43">
+        <v>0.03986015697084788</v>
+      </c>
+      <c r="K43">
+        <v>-0.00022078045557856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.009241007509745939</v>
+        <v>0.0209422429355442</v>
       </c>
       <c r="C44">
-        <v>-0.1096562731482473</v>
+        <v>0.1012929911930671</v>
       </c>
       <c r="D44">
-        <v>0.05355841795389037</v>
+        <v>-0.06465604508259631</v>
       </c>
       <c r="E44">
-        <v>-0.03635128580192993</v>
+        <v>-0.001443521709157711</v>
       </c>
       <c r="F44">
-        <v>-0.01515498520918141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05693158111910061</v>
+      </c>
+      <c r="G44">
+        <v>0.02566492052600125</v>
+      </c>
+      <c r="H44">
+        <v>-0.0121970024749249</v>
+      </c>
+      <c r="I44">
+        <v>-0.04859493937537365</v>
+      </c>
+      <c r="J44">
+        <v>0.05447387030713583</v>
+      </c>
+      <c r="K44">
+        <v>0.07774690989637466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00643560288741649</v>
+        <v>0.008126950487005942</v>
       </c>
       <c r="C46">
-        <v>-0.07100975225448397</v>
+        <v>0.07244152165296669</v>
       </c>
       <c r="D46">
-        <v>0.0716867066392381</v>
+        <v>-0.02606060442973877</v>
       </c>
       <c r="E46">
-        <v>0.00421552562765123</v>
+        <v>-0.0119229940537934</v>
       </c>
       <c r="F46">
-        <v>0.02069849243017984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01791162598960837</v>
+      </c>
+      <c r="G46">
+        <v>-0.003680911425983157</v>
+      </c>
+      <c r="H46">
+        <v>0.0115668823420639</v>
+      </c>
+      <c r="I46">
+        <v>-0.01489206339445906</v>
+      </c>
+      <c r="J46">
+        <v>0.09266045331332755</v>
+      </c>
+      <c r="K46">
+        <v>0.01070174625361431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.009281559028580702</v>
+        <v>0.02198119207220144</v>
       </c>
       <c r="C47">
-        <v>-0.05753978913883455</v>
+        <v>0.06634704374492442</v>
       </c>
       <c r="D47">
-        <v>0.048341474322211</v>
+        <v>-0.04590331558825204</v>
       </c>
       <c r="E47">
-        <v>0.03474711715964268</v>
+        <v>0.01928403386738909</v>
       </c>
       <c r="F47">
-        <v>0.03474819321264264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.004605217204319252</v>
+      </c>
+      <c r="G47">
+        <v>-0.004849715070220932</v>
+      </c>
+      <c r="H47">
+        <v>0.01939713377225126</v>
+      </c>
+      <c r="I47">
+        <v>-0.001922672896520157</v>
+      </c>
+      <c r="J47">
+        <v>0.06982537930361232</v>
+      </c>
+      <c r="K47">
+        <v>-0.02376961547972085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.002054022122571021</v>
+        <v>0.0172150035573244</v>
       </c>
       <c r="C48">
-        <v>-0.05241118270799385</v>
+        <v>0.04715995223099846</v>
       </c>
       <c r="D48">
-        <v>0.07151045359002584</v>
+        <v>-0.05181441498772137</v>
       </c>
       <c r="E48">
-        <v>0.02487083988172755</v>
+        <v>0.01857494554223189</v>
       </c>
       <c r="F48">
-        <v>0.01512359021524416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.018188632486332</v>
+      </c>
+      <c r="G48">
+        <v>0.002829732925578421</v>
+      </c>
+      <c r="H48">
+        <v>0.03492434110477436</v>
+      </c>
+      <c r="I48">
+        <v>0.01548400022138365</v>
+      </c>
+      <c r="J48">
+        <v>0.1207551751162839</v>
+      </c>
+      <c r="K48">
+        <v>0.04699293024064397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02723192440568793</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.06054591174159132</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01836692825202356</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03337500576935081</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.05370734437170094</v>
+      </c>
+      <c r="G49">
+        <v>-0.0709975900971249</v>
+      </c>
+      <c r="H49">
+        <v>0.0413200764890253</v>
+      </c>
+      <c r="I49">
+        <v>-0.094904309225243</v>
+      </c>
+      <c r="J49">
+        <v>-0.1024277371081443</v>
+      </c>
+      <c r="K49">
+        <v>0.0635133833315082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.002406867329489905</v>
+        <v>0.01754577081445605</v>
       </c>
       <c r="C50">
-        <v>-0.05839904873408087</v>
+        <v>0.07343727621228444</v>
       </c>
       <c r="D50">
-        <v>0.03414442119272448</v>
+        <v>-0.03098184812151525</v>
       </c>
       <c r="E50">
-        <v>0.0008509074214865178</v>
+        <v>0.01260419019057837</v>
       </c>
       <c r="F50">
-        <v>-0.009018727298803254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02128241399810586</v>
+      </c>
+      <c r="G50">
+        <v>0.001948655315750817</v>
+      </c>
+      <c r="H50">
+        <v>0.03223858994070166</v>
+      </c>
+      <c r="I50">
+        <v>-0.01268910182587036</v>
+      </c>
+      <c r="J50">
+        <v>0.05488802983323434</v>
+      </c>
+      <c r="K50">
+        <v>-0.04883757870081919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.001164792991103273</v>
+        <v>-0.004344573977991445</v>
       </c>
       <c r="C51">
-        <v>-0.07492021968350054</v>
+        <v>0.03576948878340051</v>
       </c>
       <c r="D51">
-        <v>0.04714984729039338</v>
+        <v>-0.02659338006020766</v>
       </c>
       <c r="E51">
-        <v>-0.03905085275552318</v>
+        <v>-0.0130862743600523</v>
       </c>
       <c r="F51">
-        <v>-0.01252934426621212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01305981242694864</v>
+      </c>
+      <c r="G51">
+        <v>0.01839388260236663</v>
+      </c>
+      <c r="H51">
+        <v>0.01594128918496815</v>
+      </c>
+      <c r="I51">
+        <v>-0.03007418318370359</v>
+      </c>
+      <c r="J51">
+        <v>0.1145559556927011</v>
+      </c>
+      <c r="K51">
+        <v>0.03591933468343331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03124715331194971</v>
+        <v>0.06583113463304098</v>
       </c>
       <c r="C53">
-        <v>-0.09970739365127501</v>
+        <v>0.1248008800113183</v>
       </c>
       <c r="D53">
-        <v>0.05771573277149649</v>
+        <v>-0.05825986050223997</v>
       </c>
       <c r="E53">
-        <v>0.08027828117862905</v>
+        <v>0.01281423844088726</v>
       </c>
       <c r="F53">
-        <v>-0.03183784639058243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04768037610418372</v>
+      </c>
+      <c r="G53">
+        <v>-0.02733073537049711</v>
+      </c>
+      <c r="H53">
+        <v>0.03164534620813601</v>
+      </c>
+      <c r="I53">
+        <v>0.09454690070587685</v>
+      </c>
+      <c r="J53">
+        <v>-0.03823146393958</v>
+      </c>
+      <c r="K53">
+        <v>-0.03433740277638328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.00424954967646306</v>
+        <v>0.01971198448408214</v>
       </c>
       <c r="C54">
-        <v>-0.07375819700143707</v>
+        <v>0.07304381887376418</v>
       </c>
       <c r="D54">
-        <v>0.0220112798466403</v>
+        <v>-0.01076387850731632</v>
       </c>
       <c r="E54">
-        <v>0.04343486830663514</v>
+        <v>-0.0001986671550095773</v>
       </c>
       <c r="F54">
-        <v>-0.006692105474247817</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0009235987771866238</v>
+      </c>
+      <c r="G54">
+        <v>-0.004256587938446161</v>
+      </c>
+      <c r="H54">
+        <v>0.004160788286277621</v>
+      </c>
+      <c r="I54">
+        <v>-0.005711862976985527</v>
+      </c>
+      <c r="J54">
+        <v>0.06152962548219665</v>
+      </c>
+      <c r="K54">
+        <v>0.02458885286188431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01452877766136685</v>
+        <v>0.03343204531284954</v>
       </c>
       <c r="C55">
-        <v>-0.0526722532493477</v>
+        <v>0.08061012714733935</v>
       </c>
       <c r="D55">
-        <v>0.05674948289362168</v>
+        <v>-0.05267926048591521</v>
       </c>
       <c r="E55">
-        <v>0.05897687876237566</v>
+        <v>0.01777525744928784</v>
       </c>
       <c r="F55">
-        <v>0.01448433228291465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03127792978969617</v>
+      </c>
+      <c r="G55">
+        <v>-0.02173209819288016</v>
+      </c>
+      <c r="H55">
+        <v>0.009691085433522095</v>
+      </c>
+      <c r="I55">
+        <v>0.04289497309794923</v>
+      </c>
+      <c r="J55">
+        <v>-0.006098991637471961</v>
+      </c>
+      <c r="K55">
+        <v>0.005108217751474128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01197713475490551</v>
+        <v>0.05845900099791399</v>
       </c>
       <c r="C56">
-        <v>-0.1309045108716028</v>
+        <v>0.1554298046880007</v>
       </c>
       <c r="D56">
-        <v>0.06183125519284766</v>
+        <v>-0.08363600082355023</v>
       </c>
       <c r="E56">
-        <v>0.04568537895690877</v>
+        <v>0.03671947699914288</v>
       </c>
       <c r="F56">
-        <v>-0.01331427372186416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1017418103619038</v>
+      </c>
+      <c r="G56">
+        <v>-0.0310232342631857</v>
+      </c>
+      <c r="H56">
+        <v>0.0748739386750262</v>
+      </c>
+      <c r="I56">
+        <v>0.175382479532729</v>
+      </c>
+      <c r="J56">
+        <v>-0.07564793117880249</v>
+      </c>
+      <c r="K56">
+        <v>-0.005536857118742121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.01433092186894515</v>
+        <v>0.01927559349703821</v>
       </c>
       <c r="C58">
-        <v>-0.2801382847063468</v>
+        <v>0.1667306957907513</v>
       </c>
       <c r="D58">
-        <v>-0.03151943272813201</v>
+        <v>-0.0403424810804982</v>
       </c>
       <c r="E58">
-        <v>-0.1849525400095509</v>
+        <v>-0.03360684724593883</v>
       </c>
       <c r="F58">
-        <v>-0.1263115023220922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2547293639701249</v>
+      </c>
+      <c r="G58">
+        <v>0.2342764288504197</v>
+      </c>
+      <c r="H58">
+        <v>0.003197819057367459</v>
+      </c>
+      <c r="I58">
+        <v>0.02257384291886898</v>
+      </c>
+      <c r="J58">
+        <v>0.1707103316504958</v>
+      </c>
+      <c r="K58">
+        <v>0.002338396756041793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2886938039980966</v>
+        <v>0.2850784402654623</v>
       </c>
       <c r="C59">
-        <v>-0.001591077371224147</v>
+        <v>-0.06784254592762229</v>
       </c>
       <c r="D59">
-        <v>-0.01805651073052035</v>
+        <v>0.008396552202227315</v>
       </c>
       <c r="E59">
-        <v>-0.06147787576955471</v>
+        <v>-0.0008964601653383436</v>
       </c>
       <c r="F59">
-        <v>0.04974894385735188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02303193237339863</v>
+      </c>
+      <c r="G59">
+        <v>0.06121741346968899</v>
+      </c>
+      <c r="H59">
+        <v>-0.02414053907433465</v>
+      </c>
+      <c r="I59">
+        <v>0.006703477991766395</v>
+      </c>
+      <c r="J59">
+        <v>-0.006899106737252476</v>
+      </c>
+      <c r="K59">
+        <v>-0.03852386899053809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.126453664453808</v>
+        <v>0.1597570933286822</v>
       </c>
       <c r="C60">
-        <v>-0.1476165805631887</v>
+        <v>0.1609632273987369</v>
       </c>
       <c r="D60">
-        <v>0.08145578780330584</v>
+        <v>-0.03039238633894957</v>
       </c>
       <c r="E60">
-        <v>0.1621863662456714</v>
+        <v>0.07089387654427232</v>
       </c>
       <c r="F60">
-        <v>0.2598703462041433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1471265312545359</v>
+      </c>
+      <c r="G60">
+        <v>-0.1002360143212365</v>
+      </c>
+      <c r="H60">
+        <v>-0.2532550132726712</v>
+      </c>
+      <c r="I60">
+        <v>-0.1312286947387734</v>
+      </c>
+      <c r="J60">
+        <v>-0.1480346077333886</v>
+      </c>
+      <c r="K60">
+        <v>0.06300040198036974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006124987321961925</v>
+        <v>0.02916010166533063</v>
       </c>
       <c r="C61">
-        <v>-0.08678830515625682</v>
+        <v>0.09997086732461537</v>
       </c>
       <c r="D61">
-        <v>0.0786178900227724</v>
+        <v>-0.05353368777363191</v>
       </c>
       <c r="E61">
-        <v>0.04655824190798628</v>
+        <v>0.01826435811002298</v>
       </c>
       <c r="F61">
-        <v>0.03167186739740314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02112394259743439</v>
+      </c>
+      <c r="G61">
+        <v>-0.02555075236630036</v>
+      </c>
+      <c r="H61">
+        <v>0.03717577433879321</v>
+      </c>
+      <c r="I61">
+        <v>-0.03605154274397784</v>
+      </c>
+      <c r="J61">
+        <v>0.03144566089699052</v>
+      </c>
+      <c r="K61">
+        <v>0.03244382462443045</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002455172454227963</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0161339778706442</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003611025056331166</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03258531554973149</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.01976074714683419</v>
+      </c>
+      <c r="G62">
+        <v>0.0005168085796783743</v>
+      </c>
+      <c r="H62">
+        <v>-0.001403992921903339</v>
+      </c>
+      <c r="I62">
+        <v>-0.02690172303381189</v>
+      </c>
+      <c r="J62">
+        <v>0.01639027651058059</v>
+      </c>
+      <c r="K62">
+        <v>-0.004317517232416803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.002635286345147109</v>
+        <v>0.0284399758353527</v>
       </c>
       <c r="C63">
-        <v>-0.05305256235171438</v>
+        <v>0.06081969382810841</v>
       </c>
       <c r="D63">
-        <v>0.04984076780272174</v>
+        <v>-0.06097256297547556</v>
       </c>
       <c r="E63">
-        <v>0.007274150501415305</v>
+        <v>0.01532547431981531</v>
       </c>
       <c r="F63">
-        <v>-0.006249956404453079</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008282799746228347</v>
+      </c>
+      <c r="G63">
+        <v>-0.002231240271499607</v>
+      </c>
+      <c r="H63">
+        <v>0.04254761208733918</v>
+      </c>
+      <c r="I63">
+        <v>-0.006467059169611001</v>
+      </c>
+      <c r="J63">
+        <v>0.05047083569442773</v>
+      </c>
+      <c r="K63">
+        <v>0.0134887158645058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002263125063996251</v>
+        <v>0.01695021144649094</v>
       </c>
       <c r="C64">
-        <v>-0.08973168023467516</v>
+        <v>0.08215654822225513</v>
       </c>
       <c r="D64">
-        <v>0.09272602118237643</v>
+        <v>-0.03026127397976818</v>
       </c>
       <c r="E64">
-        <v>0.03897720518319164</v>
+        <v>0.01904483323410919</v>
       </c>
       <c r="F64">
-        <v>-0.003303347310495503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03908554219876362</v>
+      </c>
+      <c r="G64">
+        <v>0.003374391722446776</v>
+      </c>
+      <c r="H64">
+        <v>-0.02826399511514825</v>
+      </c>
+      <c r="I64">
+        <v>-0.03003049284191335</v>
+      </c>
+      <c r="J64">
+        <v>0.04097946328100677</v>
+      </c>
+      <c r="K64">
+        <v>0.06406904716697985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02008736202611769</v>
+        <v>0.03499492036381056</v>
       </c>
       <c r="C65">
-        <v>-0.1009012139749148</v>
+        <v>0.09090109363529816</v>
       </c>
       <c r="D65">
-        <v>0.07589249070498034</v>
+        <v>-0.02155775343212441</v>
       </c>
       <c r="E65">
-        <v>0.05231688619932608</v>
+        <v>-0.00322991745379514</v>
       </c>
       <c r="F65">
-        <v>0.03174920356762803</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.006310003119833244</v>
+      </c>
+      <c r="G65">
+        <v>-0.01474229600556301</v>
+      </c>
+      <c r="H65">
+        <v>-0.03786839502254364</v>
+      </c>
+      <c r="I65">
+        <v>-0.06750513082427641</v>
+      </c>
+      <c r="J65">
+        <v>0.009938332965401652</v>
+      </c>
+      <c r="K65">
+        <v>0.09140167387157565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.00141791798258044</v>
+        <v>0.0287349003465949</v>
       </c>
       <c r="C66">
-        <v>-0.1751000684986531</v>
+        <v>0.173785412248303</v>
       </c>
       <c r="D66">
-        <v>0.05682707025738656</v>
+        <v>-0.05436894389489555</v>
       </c>
       <c r="E66">
-        <v>0.005186628553806317</v>
+        <v>0.0142093660600242</v>
       </c>
       <c r="F66">
-        <v>0.03484967331850822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.0139782389412245</v>
+      </c>
+      <c r="G66">
+        <v>0.00426646947428149</v>
+      </c>
+      <c r="H66">
+        <v>0.05105975099575525</v>
+      </c>
+      <c r="I66">
+        <v>-0.05057521712548405</v>
+      </c>
+      <c r="J66">
+        <v>0.03408964211479574</v>
+      </c>
+      <c r="K66">
+        <v>0.07277109890108664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02876899585017083</v>
+        <v>0.02319039758421376</v>
       </c>
       <c r="C67">
-        <v>-0.01904290142033459</v>
+        <v>0.05294833212426103</v>
       </c>
       <c r="D67">
-        <v>0.06073826554959409</v>
+        <v>-0.04312980970158414</v>
       </c>
       <c r="E67">
-        <v>0.05927938505084879</v>
+        <v>-0.03694186025360233</v>
       </c>
       <c r="F67">
-        <v>0.02763669769354784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.005452529416672288</v>
+      </c>
+      <c r="G67">
+        <v>-0.02952203168624552</v>
+      </c>
+      <c r="H67">
+        <v>-0.02185453606508501</v>
+      </c>
+      <c r="I67">
+        <v>-0.03572790471827168</v>
+      </c>
+      <c r="J67">
+        <v>0.06800477277990812</v>
+      </c>
+      <c r="K67">
+        <v>-0.05811313709196698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2990306266109152</v>
+        <v>0.2853469846881819</v>
       </c>
       <c r="C68">
-        <v>0.006952275529285724</v>
+        <v>-0.1008744356592631</v>
       </c>
       <c r="D68">
-        <v>0.005036832926198454</v>
+        <v>0.03262786963583794</v>
       </c>
       <c r="E68">
-        <v>-0.03863397622867569</v>
+        <v>0.05163340338996313</v>
       </c>
       <c r="F68">
-        <v>-0.01229591783108097</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02802837531431786</v>
+      </c>
+      <c r="G68">
+        <v>0.03856775085085309</v>
+      </c>
+      <c r="H68">
+        <v>0.0208464171617157</v>
+      </c>
+      <c r="I68">
+        <v>0.01395931722703589</v>
+      </c>
+      <c r="J68">
+        <v>0.02941556443113341</v>
+      </c>
+      <c r="K68">
+        <v>-0.05244912596026756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.007881170905609875</v>
+        <v>0.01115749231007513</v>
       </c>
       <c r="C69">
-        <v>-0.04669909725258833</v>
+        <v>0.04428527156964131</v>
       </c>
       <c r="D69">
-        <v>0.04435634414631125</v>
+        <v>-0.02471753682183735</v>
       </c>
       <c r="E69">
-        <v>0.04001290398068705</v>
+        <v>-0.0185196754352774</v>
       </c>
       <c r="F69">
-        <v>0.01301376370190518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.006065026976663653</v>
+      </c>
+      <c r="G69">
+        <v>0.001203820856168624</v>
+      </c>
+      <c r="H69">
+        <v>-0.01713412571926399</v>
+      </c>
+      <c r="I69">
+        <v>-0.008715249841120468</v>
+      </c>
+      <c r="J69">
+        <v>0.03147393787685571</v>
+      </c>
+      <c r="K69">
+        <v>-0.03699741158393608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2852281589196189</v>
+        <v>0.2721430220391244</v>
       </c>
       <c r="C71">
-        <v>0.03147156636528829</v>
+        <v>-0.08928717082116831</v>
       </c>
       <c r="D71">
-        <v>-0.009700674167064339</v>
+        <v>0.01892517528158569</v>
       </c>
       <c r="E71">
-        <v>-0.03704225288252671</v>
+        <v>-0.009093433714120396</v>
       </c>
       <c r="F71">
-        <v>-0.02803022762180845</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05211781631958703</v>
+      </c>
+      <c r="G71">
+        <v>0.03830479665153722</v>
+      </c>
+      <c r="H71">
+        <v>0.005935630401191838</v>
+      </c>
+      <c r="I71">
+        <v>0.01747513908043195</v>
+      </c>
+      <c r="J71">
+        <v>0.05812354594534744</v>
+      </c>
+      <c r="K71">
+        <v>-0.1113423071037137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02024017415980149</v>
+        <v>0.05962028317137901</v>
       </c>
       <c r="C72">
-        <v>-0.1340995333394096</v>
+        <v>0.1294334245666749</v>
       </c>
       <c r="D72">
-        <v>0.05230051057532279</v>
+        <v>-0.04333071699954008</v>
       </c>
       <c r="E72">
-        <v>0.05256232755060643</v>
+        <v>0.04316507639274741</v>
       </c>
       <c r="F72">
-        <v>-0.02113440239754714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02674478222835185</v>
+      </c>
+      <c r="G72">
+        <v>-0.02626511468797565</v>
+      </c>
+      <c r="H72">
+        <v>0.02100821974781705</v>
+      </c>
+      <c r="I72">
+        <v>0.002507178601470171</v>
+      </c>
+      <c r="J72">
+        <v>0.05340898033461518</v>
+      </c>
+      <c r="K72">
+        <v>0.09776505372034465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09529582728901641</v>
+        <v>0.1604462153456243</v>
       </c>
       <c r="C73">
-        <v>-0.107839743041565</v>
+        <v>0.183126714314759</v>
       </c>
       <c r="D73">
-        <v>0.1259660345280378</v>
+        <v>-0.07182051160334255</v>
       </c>
       <c r="E73">
-        <v>0.2503365715266566</v>
+        <v>0.02474019050535241</v>
       </c>
       <c r="F73">
-        <v>0.330813129645277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1684864055096511</v>
+      </c>
+      <c r="G73">
+        <v>-0.1949937921956417</v>
+      </c>
+      <c r="H73">
+        <v>-0.3813444350256435</v>
+      </c>
+      <c r="I73">
+        <v>-0.2713402782470261</v>
+      </c>
+      <c r="J73">
+        <v>-0.1759890297519024</v>
+      </c>
+      <c r="K73">
+        <v>-0.1005004647220228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01525596298330386</v>
+        <v>0.04219600404521057</v>
       </c>
       <c r="C74">
-        <v>-0.08083298042605022</v>
+        <v>0.09798005193424722</v>
       </c>
       <c r="D74">
-        <v>0.07334728976405781</v>
+        <v>-0.04409623216010512</v>
       </c>
       <c r="E74">
-        <v>0.05421472881083864</v>
+        <v>0.02438326718718678</v>
       </c>
       <c r="F74">
-        <v>0.007644905641524083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01188289754662637</v>
+      </c>
+      <c r="G74">
+        <v>-0.02796041990388557</v>
+      </c>
+      <c r="H74">
+        <v>0.009084736561541741</v>
+      </c>
+      <c r="I74">
+        <v>0.06192779207642873</v>
+      </c>
+      <c r="J74">
+        <v>0.01507466168078878</v>
+      </c>
+      <c r="K74">
+        <v>0.01536877490606826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03074328327323469</v>
+        <v>0.06932534883944012</v>
       </c>
       <c r="C75">
-        <v>-0.1311365257324315</v>
+        <v>0.1591959565578015</v>
       </c>
       <c r="D75">
-        <v>0.05047039681116478</v>
+        <v>-0.08687199226479414</v>
       </c>
       <c r="E75">
-        <v>0.1005503680753464</v>
+        <v>0.04288166651538307</v>
       </c>
       <c r="F75">
-        <v>-0.04683280620689175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04192350416417287</v>
+      </c>
+      <c r="G75">
+        <v>-0.08482247859049458</v>
+      </c>
+      <c r="H75">
+        <v>0.1439497423714982</v>
+      </c>
+      <c r="I75">
+        <v>0.1827500020504396</v>
+      </c>
+      <c r="J75">
+        <v>-0.06481178835555255</v>
+      </c>
+      <c r="K75">
+        <v>-0.1536287729390716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01456254328506496</v>
+        <v>0.05105395179358264</v>
       </c>
       <c r="C76">
-        <v>-0.09506406669813458</v>
+        <v>0.1275657592003589</v>
       </c>
       <c r="D76">
-        <v>0.06784138735375031</v>
+        <v>-0.07724000727776481</v>
       </c>
       <c r="E76">
-        <v>0.08573081340356269</v>
+        <v>0.02551373880422962</v>
       </c>
       <c r="F76">
-        <v>-0.004191977557584758</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.06162258476901238</v>
+      </c>
+      <c r="G76">
+        <v>-0.04865620280426713</v>
+      </c>
+      <c r="H76">
+        <v>0.07125924597341175</v>
+      </c>
+      <c r="I76">
+        <v>0.07541196236724879</v>
+      </c>
+      <c r="J76">
+        <v>-0.06591956037052567</v>
+      </c>
+      <c r="K76">
+        <v>0.01026183426365259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08488144275124875</v>
+        <v>0.06793224087845916</v>
       </c>
       <c r="C77">
-        <v>-0.3540674380354904</v>
+        <v>0.3901774008041157</v>
       </c>
       <c r="D77">
-        <v>-0.8252476945932135</v>
+        <v>0.9021565208989053</v>
       </c>
       <c r="E77">
-        <v>0.3443607884947308</v>
+        <v>0.01470576766021127</v>
       </c>
       <c r="F77">
-        <v>0.05485088968233138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.001364448795584349</v>
+      </c>
+      <c r="G77">
+        <v>-0.06990628432258625</v>
+      </c>
+      <c r="H77">
+        <v>0.09711371244642861</v>
+      </c>
+      <c r="I77">
+        <v>-0.01045141392184775</v>
+      </c>
+      <c r="J77">
+        <v>0.01563207754978088</v>
+      </c>
+      <c r="K77">
+        <v>-0.03118252921537012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.01779050635505993</v>
+        <v>0.03860447944948361</v>
       </c>
       <c r="C78">
-        <v>-0.1290055194034515</v>
+        <v>0.1101121583623432</v>
       </c>
       <c r="D78">
-        <v>0.1404134913936186</v>
+        <v>-0.08552046819238344</v>
       </c>
       <c r="E78">
-        <v>-0.09979434734098377</v>
+        <v>-0.02065962711977175</v>
       </c>
       <c r="F78">
-        <v>0.08409211470875526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03565115426762856</v>
+      </c>
+      <c r="G78">
+        <v>0.02602044181748343</v>
+      </c>
+      <c r="H78">
+        <v>0.05200219035906694</v>
+      </c>
+      <c r="I78">
+        <v>0.0571798046717092</v>
+      </c>
+      <c r="J78">
+        <v>0.07123952134668951</v>
+      </c>
+      <c r="K78">
+        <v>0.1207555465387276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.0239659355884761</v>
+        <v>0.0609149477013876</v>
       </c>
       <c r="C79">
-        <v>-0.1246301388362653</v>
+        <v>0.1330035929235298</v>
       </c>
       <c r="D79">
-        <v>0.08302867083700823</v>
+        <v>-0.05814506678472588</v>
       </c>
       <c r="E79">
-        <v>0.07016314465347886</v>
+        <v>0.01078723585134947</v>
       </c>
       <c r="F79">
-        <v>-0.03821733671588079</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.03288252033352483</v>
+      </c>
+      <c r="G79">
+        <v>-0.004621398299715077</v>
+      </c>
+      <c r="H79">
+        <v>0.1164002806381516</v>
+      </c>
+      <c r="I79">
+        <v>0.233855341368354</v>
+      </c>
+      <c r="J79">
+        <v>-0.01320369503405859</v>
+      </c>
+      <c r="K79">
+        <v>-0.06583016109334799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.008891781229484143</v>
+        <v>0.0212395019987357</v>
       </c>
       <c r="C80">
-        <v>-0.05605634814226717</v>
+        <v>0.04234167673187789</v>
       </c>
       <c r="D80">
-        <v>0.03528461609773887</v>
+        <v>-0.03371893991136225</v>
       </c>
       <c r="E80">
-        <v>-0.02509159709073589</v>
+        <v>-0.009291557773264326</v>
       </c>
       <c r="F80">
-        <v>0.03214098990342773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02037260105615426</v>
+      </c>
+      <c r="G80">
+        <v>0.06190513183831437</v>
+      </c>
+      <c r="H80">
+        <v>-0.0487959082345657</v>
+      </c>
+      <c r="I80">
+        <v>-0.06252906360067509</v>
+      </c>
+      <c r="J80">
+        <v>-0.0159613927392247</v>
+      </c>
+      <c r="K80">
+        <v>-0.02054131922025742</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0008710435216863341</v>
+        <v>0.02391590763185812</v>
       </c>
       <c r="C81">
-        <v>-0.08175032229116298</v>
+        <v>0.1014954931534751</v>
       </c>
       <c r="D81">
-        <v>0.05681331103242003</v>
+        <v>-0.05602690258168726</v>
       </c>
       <c r="E81">
-        <v>0.07524245562225947</v>
+        <v>0.006335147512598681</v>
       </c>
       <c r="F81">
-        <v>-0.01255367522660867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03899937555961594</v>
+      </c>
+      <c r="G81">
+        <v>-0.01576675683596563</v>
+      </c>
+      <c r="H81">
+        <v>0.06851050075122579</v>
+      </c>
+      <c r="I81">
+        <v>0.1113300472365728</v>
+      </c>
+      <c r="J81">
+        <v>0.03522539853493293</v>
+      </c>
+      <c r="K81">
+        <v>-0.05776531202447208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01887873220949973</v>
+        <v>0.05184059818130578</v>
       </c>
       <c r="C82">
-        <v>-0.07326781697411038</v>
+        <v>0.1071459954474693</v>
       </c>
       <c r="D82">
-        <v>0.07158812597992592</v>
+        <v>-0.06656288158992865</v>
       </c>
       <c r="E82">
-        <v>0.08278833533796964</v>
+        <v>0.007036873153033482</v>
       </c>
       <c r="F82">
-        <v>0.001079313601223096</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06780258672730033</v>
+      </c>
+      <c r="G82">
+        <v>-0.03734237249074744</v>
+      </c>
+      <c r="H82">
+        <v>0.07072148077541618</v>
+      </c>
+      <c r="I82">
+        <v>0.06453867879009528</v>
+      </c>
+      <c r="J82">
+        <v>-0.03651341527102066</v>
+      </c>
+      <c r="K82">
+        <v>-0.01152358955456889</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.009060331043146639</v>
+        <v>-0.0001134674067171339</v>
       </c>
       <c r="C83">
-        <v>-0.008763090975955561</v>
+        <v>-0.02179133581846029</v>
       </c>
       <c r="D83">
-        <v>-0.1762359547189392</v>
+        <v>0.06641164390047002</v>
       </c>
       <c r="E83">
-        <v>-0.4739939120577952</v>
+        <v>-0.008786636427060754</v>
       </c>
       <c r="F83">
-        <v>0.7145084571001772</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.6482460156875131</v>
+      </c>
+      <c r="G83">
+        <v>0.7082625596395772</v>
+      </c>
+      <c r="H83">
+        <v>0.03966607889634712</v>
+      </c>
+      <c r="I83">
+        <v>-0.03760281218780288</v>
+      </c>
+      <c r="J83">
+        <v>-0.106878680789855</v>
+      </c>
+      <c r="K83">
+        <v>0.06602261404874617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.01016113322807359</v>
+        <v>0.01570956709753164</v>
       </c>
       <c r="C84">
-        <v>-0.1043135350615631</v>
+        <v>0.06560407284156683</v>
       </c>
       <c r="D84">
-        <v>0.0265247632606363</v>
+        <v>-0.09514537923871334</v>
       </c>
       <c r="E84">
-        <v>-0.06140703532516793</v>
+        <v>-0.1377598265314211</v>
       </c>
       <c r="F84">
-        <v>-0.1369936273346538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.187237028192954</v>
+      </c>
+      <c r="G84">
+        <v>0.08845500552934638</v>
+      </c>
+      <c r="H84">
+        <v>0.5950599728543564</v>
+      </c>
+      <c r="I84">
+        <v>-0.5406945299825269</v>
+      </c>
+      <c r="J84">
+        <v>-0.4195028744622177</v>
+      </c>
+      <c r="K84">
+        <v>-0.1402277161143027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003162967263075874</v>
+        <v>0.03588892384150011</v>
       </c>
       <c r="C85">
-        <v>-0.08482933308826984</v>
+        <v>0.1159435801335623</v>
       </c>
       <c r="D85">
-        <v>0.04439352348397448</v>
+        <v>-0.07606939140399308</v>
       </c>
       <c r="E85">
-        <v>0.06733157620917109</v>
+        <v>0.02237063609138698</v>
       </c>
       <c r="F85">
-        <v>-0.01998090767084971</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.09233420320343855</v>
+      </c>
+      <c r="G85">
+        <v>-0.07161233088987658</v>
+      </c>
+      <c r="H85">
+        <v>0.1416528090058062</v>
+      </c>
+      <c r="I85">
+        <v>0.204749404396757</v>
+      </c>
+      <c r="J85">
+        <v>-0.09087634561211949</v>
+      </c>
+      <c r="K85">
+        <v>-0.07491491063124887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01370546682846838</v>
+        <v>0.01821801850001351</v>
       </c>
       <c r="C86">
-        <v>-0.1076822626655587</v>
+        <v>0.07851760975434682</v>
       </c>
       <c r="D86">
-        <v>0.01182112413407551</v>
+        <v>-0.0394277025611191</v>
       </c>
       <c r="E86">
-        <v>-0.0293363625577289</v>
+        <v>-0.0380341707510148</v>
       </c>
       <c r="F86">
-        <v>-0.02808654010200721</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.05501899163670004</v>
+      </c>
+      <c r="G86">
+        <v>0.07606275558335859</v>
+      </c>
+      <c r="H86">
+        <v>-0.04912492466389343</v>
+      </c>
+      <c r="I86">
+        <v>0.09186164993191807</v>
+      </c>
+      <c r="J86">
+        <v>0.0458891034296004</v>
+      </c>
+      <c r="K86">
+        <v>-0.09081112640108589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.007882288637114383</v>
+        <v>0.03251005945156811</v>
       </c>
       <c r="C87">
-        <v>-0.1637419014718306</v>
+        <v>0.1225319858802587</v>
       </c>
       <c r="D87">
-        <v>0.04815541709799156</v>
+        <v>-0.02213224065273809</v>
       </c>
       <c r="E87">
-        <v>-0.08995205130378763</v>
+        <v>0.04471636212548856</v>
       </c>
       <c r="F87">
-        <v>-0.06094939186947276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02313810934698026</v>
+      </c>
+      <c r="G87">
+        <v>0.03226455023977173</v>
+      </c>
+      <c r="H87">
+        <v>0.027503247984656</v>
+      </c>
+      <c r="I87">
+        <v>0.004696448585075251</v>
+      </c>
+      <c r="J87">
+        <v>0.02828141179252663</v>
+      </c>
+      <c r="K87">
+        <v>0.07595232731827344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01025109475133733</v>
+        <v>0.03981457490138848</v>
       </c>
       <c r="C88">
-        <v>-0.03340030161565299</v>
+        <v>0.05874288864798764</v>
       </c>
       <c r="D88">
-        <v>0.04422485857757717</v>
+        <v>-0.03545048425424331</v>
       </c>
       <c r="E88">
-        <v>0.05159394308922983</v>
+        <v>0.0229482847319849</v>
       </c>
       <c r="F88">
-        <v>0.01108661012121506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01399281803055071</v>
+      </c>
+      <c r="G88">
+        <v>-0.02200471347454318</v>
+      </c>
+      <c r="H88">
+        <v>-0.01200173709935575</v>
+      </c>
+      <c r="I88">
+        <v>0.001616945504155739</v>
+      </c>
+      <c r="J88">
+        <v>0.01672579741758726</v>
+      </c>
+      <c r="K88">
+        <v>0.01098014697702055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4138424745012556</v>
+        <v>0.3868195060902097</v>
       </c>
       <c r="C89">
-        <v>0.05980463380816256</v>
+        <v>-0.1321745853624143</v>
       </c>
       <c r="D89">
-        <v>0.09137973521901638</v>
+        <v>0.03172961501632589</v>
       </c>
       <c r="E89">
-        <v>-0.09508425908230513</v>
+        <v>0.02801573547088151</v>
       </c>
       <c r="F89">
-        <v>-0.05161782187724617</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0565638463962797</v>
+      </c>
+      <c r="G89">
+        <v>-0.0100323612694478</v>
+      </c>
+      <c r="H89">
+        <v>0.0639278675288418</v>
+      </c>
+      <c r="I89">
+        <v>-0.05077313569741446</v>
+      </c>
+      <c r="J89">
+        <v>-0.002754255712931596</v>
+      </c>
+      <c r="K89">
+        <v>0.7386059950415582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3088946057840694</v>
+        <v>0.3144059580855577</v>
       </c>
       <c r="C90">
-        <v>0.01248462486138072</v>
+        <v>-0.09161477756153269</v>
       </c>
       <c r="D90">
-        <v>-0.0165966490051652</v>
+        <v>0.01996315006418654</v>
       </c>
       <c r="E90">
-        <v>-0.05283383263177224</v>
+        <v>-0.005850996428531876</v>
       </c>
       <c r="F90">
-        <v>0.008675467590713351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01935928545308414</v>
+      </c>
+      <c r="G90">
+        <v>0.02808577562467751</v>
+      </c>
+      <c r="H90">
+        <v>0.0232363669327352</v>
+      </c>
+      <c r="I90">
+        <v>-0.004601470087615207</v>
+      </c>
+      <c r="J90">
+        <v>0.009687615031567565</v>
+      </c>
+      <c r="K90">
+        <v>-0.09779321475814894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02967298319653637</v>
+        <v>0.05920547268558426</v>
       </c>
       <c r="C91">
-        <v>-0.06985119728973203</v>
+        <v>0.07261206470514622</v>
       </c>
       <c r="D91">
-        <v>0.05631903065103062</v>
+        <v>-0.05214635952911797</v>
       </c>
       <c r="E91">
-        <v>0.02529953074734716</v>
+        <v>0.01829420699972071</v>
       </c>
       <c r="F91">
-        <v>0.01972266151348526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06097283117899019</v>
+      </c>
+      <c r="G91">
+        <v>0.003752375612042943</v>
+      </c>
+      <c r="H91">
+        <v>0.02442389905389588</v>
+      </c>
+      <c r="I91">
+        <v>0.09328489761840102</v>
+      </c>
+      <c r="J91">
+        <v>-0.0421892219886382</v>
+      </c>
+      <c r="K91">
+        <v>-0.02482398126469832</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3769759134912277</v>
+        <v>0.3471079716789604</v>
       </c>
       <c r="C92">
-        <v>0.05552038255479093</v>
+        <v>-0.1272447924066832</v>
       </c>
       <c r="D92">
-        <v>-0.01090462310494572</v>
+        <v>0.04872473551733673</v>
       </c>
       <c r="E92">
-        <v>0.009142968131069785</v>
+        <v>0.02806317718627271</v>
       </c>
       <c r="F92">
-        <v>-0.11728994744925</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06478196128605777</v>
+      </c>
+      <c r="G92">
+        <v>0.00964778524348717</v>
+      </c>
+      <c r="H92">
+        <v>0.02648450924116085</v>
+      </c>
+      <c r="I92">
+        <v>0.01597822651949718</v>
+      </c>
+      <c r="J92">
+        <v>0.05926073402141998</v>
+      </c>
+      <c r="K92">
+        <v>-0.1301845347618203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.314391342936139</v>
+        <v>0.3045370637071393</v>
       </c>
       <c r="C93">
-        <v>0.0695242390872831</v>
+        <v>-0.1318163627044426</v>
       </c>
       <c r="D93">
-        <v>-0.008435754508486456</v>
+        <v>0.006497452621271322</v>
       </c>
       <c r="E93">
-        <v>-0.05297172413954025</v>
+        <v>-0.02922837422527728</v>
       </c>
       <c r="F93">
-        <v>-0.02586073728753212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04113670993464234</v>
+      </c>
+      <c r="G93">
+        <v>0.03508743874711213</v>
+      </c>
+      <c r="H93">
+        <v>0.01766653667814225</v>
+      </c>
+      <c r="I93">
+        <v>0.03872493020132046</v>
+      </c>
+      <c r="J93">
+        <v>0.03211824946330729</v>
+      </c>
+      <c r="K93">
+        <v>-0.135282065169882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03354420094904654</v>
+        <v>0.09058053082267133</v>
       </c>
       <c r="C94">
-        <v>-0.1882526400090559</v>
+        <v>0.1659202654454363</v>
       </c>
       <c r="D94">
-        <v>0.07038658995212874</v>
+        <v>-0.1010061449278213</v>
       </c>
       <c r="E94">
-        <v>0.05557530658392965</v>
+        <v>0.01995733456487451</v>
       </c>
       <c r="F94">
-        <v>-0.1770850411004093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0693707097317368</v>
+      </c>
+      <c r="G94">
+        <v>-0.04384062513797452</v>
+      </c>
+      <c r="H94">
+        <v>0.1883470878849444</v>
+      </c>
+      <c r="I94">
+        <v>0.4359554857131572</v>
+      </c>
+      <c r="J94">
+        <v>-0.2600637738913668</v>
+      </c>
+      <c r="K94">
+        <v>0.006820932231036531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02788416057999269</v>
+        <v>0.04610223881825829</v>
       </c>
       <c r="C95">
-        <v>-0.1229220970996359</v>
+        <v>0.1301348577611811</v>
       </c>
       <c r="D95">
-        <v>0.08828493116924872</v>
+        <v>-0.0711317272454248</v>
       </c>
       <c r="E95">
-        <v>0.1473470635664783</v>
+        <v>0.05100913427955572</v>
       </c>
       <c r="F95">
-        <v>0.07298634276335866</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03302066623470864</v>
+      </c>
+      <c r="G95">
+        <v>-0.0723998260145297</v>
+      </c>
+      <c r="H95">
+        <v>0.1042840501084404</v>
+      </c>
+      <c r="I95">
+        <v>-0.06004549640997378</v>
+      </c>
+      <c r="J95">
+        <v>-0.0414404850141537</v>
+      </c>
+      <c r="K95">
+        <v>0.09377092035217523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0007428547965234581</v>
+        <v>0.02553893143859238</v>
       </c>
       <c r="C97">
-        <v>-0.0006388708144412819</v>
+        <v>0.02822476527482079</v>
       </c>
       <c r="D97">
-        <v>0.00195705531347202</v>
+        <v>-0.004233706820253076</v>
       </c>
       <c r="E97">
-        <v>0.004991599786511451</v>
+        <v>-0.03338736130554709</v>
       </c>
       <c r="F97">
-        <v>-0.0009162808501980442</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01868932512183411</v>
+      </c>
+      <c r="G97">
+        <v>-0.01564324457249816</v>
+      </c>
+      <c r="H97">
+        <v>-0.001399590575126722</v>
+      </c>
+      <c r="I97">
+        <v>0.01103988157111278</v>
+      </c>
+      <c r="J97">
+        <v>0.03076024547123815</v>
+      </c>
+      <c r="K97">
+        <v>0.0567005606162914</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08945676491465035</v>
+        <v>0.1450861079303777</v>
       </c>
       <c r="C98">
-        <v>-0.1556168067834802</v>
+        <v>0.1601243861218263</v>
       </c>
       <c r="D98">
-        <v>0.1581848019340565</v>
+        <v>-0.0879350820639391</v>
       </c>
       <c r="E98">
-        <v>0.1730203651425865</v>
+        <v>0.004263586905868227</v>
       </c>
       <c r="F98">
-        <v>0.2388824400253773</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1869639474075087</v>
+      </c>
+      <c r="G98">
+        <v>-0.1557601894690435</v>
+      </c>
+      <c r="H98">
+        <v>-0.3302249181485055</v>
+      </c>
+      <c r="I98">
+        <v>-0.1959512467149815</v>
+      </c>
+      <c r="J98">
+        <v>-0.2054111877730528</v>
+      </c>
+      <c r="K98">
+        <v>-0.1062287862401669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.04298063979806009</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.08804792900343557</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.008285613892284171</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9670963510244053</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.04325231169196715</v>
+      </c>
+      <c r="G99">
+        <v>-0.04643854740090136</v>
+      </c>
+      <c r="H99">
+        <v>-0.0872051468427687</v>
+      </c>
+      <c r="I99">
+        <v>0.08354921587513954</v>
+      </c>
+      <c r="J99">
+        <v>0.02123836186659268</v>
+      </c>
+      <c r="K99">
+        <v>0.07339283026748354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.001978044635433318</v>
+        <v>0.019515331014671</v>
       </c>
       <c r="C101">
-        <v>-0.07575496100814118</v>
+        <v>0.07977260443181079</v>
       </c>
       <c r="D101">
-        <v>0.05724101897952147</v>
+        <v>-0.04343595264999867</v>
       </c>
       <c r="E101">
-        <v>0.01637048198584351</v>
+        <v>0.01205635133001867</v>
       </c>
       <c r="F101">
-        <v>0.04662292792972813</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03916752967387285</v>
+      </c>
+      <c r="G101">
+        <v>0.02136521151044859</v>
+      </c>
+      <c r="H101">
+        <v>0.0495216123879745</v>
+      </c>
+      <c r="I101">
+        <v>-0.1580238539141174</v>
+      </c>
+      <c r="J101">
+        <v>0.2500647711125644</v>
+      </c>
+      <c r="K101">
+        <v>-0.01629256995975469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.001224546808631225</v>
+        <v>0.000789886386114118</v>
       </c>
       <c r="C102">
-        <v>-0.003587873759826832</v>
+        <v>0.001477028732517192</v>
       </c>
       <c r="D102">
-        <v>0.005035415730066109</v>
+        <v>-0.0001071203859577188</v>
       </c>
       <c r="E102">
-        <v>0.005483270384983932</v>
+        <v>0.001155091412168517</v>
       </c>
       <c r="F102">
-        <v>0.008791071284013957</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.005072684634979853</v>
+      </c>
+      <c r="G102">
+        <v>-0.001861524041672468</v>
+      </c>
+      <c r="H102">
+        <v>0.001385476611492508</v>
+      </c>
+      <c r="I102">
+        <v>-0.002426281764197073</v>
+      </c>
+      <c r="J102">
+        <v>0.003377602356886337</v>
+      </c>
+      <c r="K102">
+        <v>0.02421785758602054</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
